--- a/Assets/Excel/ExampleData22.xlsx
+++ b/Assets/Excel/ExampleData22.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E6907C-5C3E-AA41-A6E6-61892EF178EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774F2CCB-5EDB-1D43-9456-64710648C93D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="27120" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,27 +141,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>f1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EnemyIdList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>List|int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[244]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[255]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[266]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["f1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["f2"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["f3"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["f4"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,7 +613,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -637,7 +653,7 @@
         <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -660,13 +676,13 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -692,10 +708,10 @@
         <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="1">
-        <v>233</v>
+        <v>37</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -721,10 +737,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="1">
-        <v>244</v>
+        <v>38</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -750,10 +766,10 @@
         <v>33</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="1">
-        <v>255</v>
+        <v>39</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -777,10 +793,10 @@
         <v>555</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="1">
-        <v>266</v>
+        <v>40</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/ExampleData22.xlsx
+++ b/Assets/Excel/ExampleData22.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774F2CCB-5EDB-1D43-9456-64710648C93D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E534E0F-9AA1-4F47-8B8D-0163E32353DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="27120" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,10 @@
   </si>
   <si>
     <t>["f4"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +617,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -632,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>10</v>

--- a/Assets/Excel/ExampleData22.xlsx
+++ b/Assets/Excel/ExampleData22.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E534E0F-9AA1-4F47-8B8D-0163E32353DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73B2B1B-37DD-774C-990C-C6CAA01A4C30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="27120" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5660" yWindow="2400" windowWidth="27120" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,35 +153,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[244]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[255]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[266]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["f1"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["f2"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["f3"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["f4"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dictionary|string,string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdasd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FafDict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s:aa|d:bb|f:cc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -631,12 +635,12 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>10</v>
@@ -659,8 +663,11 @@
       <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -688,8 +695,11 @@
       <c r="I2" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -712,13 +722,16 @@
         <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -741,13 +754,16 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="I4" s="1">
+        <v>244</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -770,13 +786,16 @@
         <v>33</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1">
+        <v>266</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -797,10 +816,13 @@
         <v>555</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="I6" s="1">
+        <v>255</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/ExampleData22.xlsx
+++ b/Assets/Excel/ExampleData22.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFE8C55-4B96-5044-AFA8-252C7809A6E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28DE3D5-F681-1646-88E7-C731FC3DBE2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5660" yWindow="2400" windowWidth="27120" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t>bd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -644,10 +656,12 @@
     <col min="4" max="4" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -681,8 +695,11 @@
       <c r="K1" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -716,8 +733,11 @@
       <c r="K2" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -751,8 +771,11 @@
       <c r="K3" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -786,8 +809,11 @@
       <c r="K4" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -821,8 +847,11 @@
       <c r="K5" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -853,6 +882,9 @@
       </c>
       <c r="K6" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/ExampleData22.xlsx
+++ b/Assets/Excel/ExampleData22.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28DE3D5-F681-1646-88E7-C731FC3DBE2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12735C6E-1752-BB4E-AC6E-4F429CDD86FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5660" yWindow="2400" windowWidth="27120" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,26 @@
   </si>
   <si>
     <t>short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestEnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum|ItemTypeEnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -661,7 +681,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -698,8 +718,11 @@
       <c r="L1" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -736,8 +759,11 @@
       <c r="L2" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -774,8 +800,11 @@
       <c r="L3" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -812,8 +841,11 @@
       <c r="L4" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -850,8 +882,11 @@
       <c r="L5" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -885,6 +920,9 @@
       </c>
       <c r="L6" s="1">
         <v>123</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/ExampleData22.xlsx
+++ b/Assets/Excel/ExampleData22.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12735C6E-1752-BB4E-AC6E-4F429CDD86FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E666BBE0-57D4-6845-9D0E-20E11693EC72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5660" yWindow="2400" windowWidth="27120" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>敌人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,6 +226,14 @@
   </si>
   <si>
     <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s#AssetName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c#Enemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -665,7 +669,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -686,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
@@ -701,25 +705,25 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -748,19 +752,19 @@
         <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -783,25 +787,25 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -827,13 +831,13 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="1">
         <v>244</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4" s="1" t="b">
         <v>1</v>
@@ -842,7 +846,7 @@
         <v>12</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -868,13 +872,13 @@
         <v>33</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="1">
         <v>266</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5" s="1" t="b">
         <v>0</v>
@@ -883,7 +887,7 @@
         <v>15</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -907,13 +911,13 @@
         <v>555</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" s="1">
         <v>255</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6" s="1" t="b">
         <v>0</v>
@@ -922,7 +926,7 @@
         <v>123</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/ExampleData22.xlsx
+++ b/Assets/Excel/ExampleData22.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E666BBE0-57D4-6845-9D0E-20E11693EC72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D4A493-5A5C-2944-9F90-18522F55AC1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5660" yWindow="2400" windowWidth="27120" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,62 @@
   </si>
   <si>
     <t>c#Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinalTest1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|13|14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31|33|34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinalTest2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;string, string&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinalTest3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dic&lt;string, string&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinalTest4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32[]类型测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;string, string&gt;类型测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dic&lt;string, string&gt;类型测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32类型测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -685,7 +741,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -725,8 +781,20 @@
       <c r="M1" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -766,8 +834,20 @@
       <c r="M2" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,8 +887,20 @@
       <c r="M3" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="N3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -848,8 +940,20 @@
       <c r="M4" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="N4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>55</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -889,8 +993,20 @@
       <c r="M5" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="N5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>66</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -927,6 +1043,18 @@
       </c>
       <c r="M6" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>777</v>
       </c>
     </row>
   </sheetData>
